--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-message-definition.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-message-definition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:20:03+01:00</t>
+    <t>2025-05-23T11:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2241,17 +2241,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2260,27 +2260,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="93.828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="128.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="94.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="43.078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
